--- a/data/Puerto Octay.xlsx
+++ b/data/Puerto Octay.xlsx
@@ -1207,7 +1207,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRANSMISIÓN DEL SUR S.A.</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRANSMISIÓN DEL SUR S.A.</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">

--- a/data/Puerto Octay.xlsx
+++ b/data/Puerto Octay.xlsx
@@ -1207,7 +1207,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">

--- a/data/Puerto Octay.xlsx
+++ b/data/Puerto Octay.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Puerto Octay.xlsx
+++ b/data/Puerto Octay.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Puerto Octay.xlsx
+++ b/data/Puerto Octay.xlsx
@@ -1207,7 +1207,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F25" t="n">

--- a/data/Puerto Octay.xlsx
+++ b/data/Puerto Octay.xlsx
@@ -1207,7 +1207,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
